--- a/gpower_IRR_classifications_230915.xlsx
+++ b/gpower_IRR_classifications_230915.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/53f41c7bf9ec3dbf/Documents/GitHub/gpower_23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="299" documentId="11_F25DC773A252ABDACC1048A9511871945ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1E79EFE-AD53-4178-AAB4-DAB65B61CC4E}"/>
+  <xr:revisionPtr revIDLastSave="300" documentId="11_F25DC773A252ABDACC1048A9511871945ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F46899B-DFF5-41E4-A649-3852917F74EA}"/>
   <bookViews>
     <workbookView xWindow="-3840" yWindow="8002" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,9 +261,6 @@
     <t>t2</t>
   </si>
   <si>
-    <t>t3</t>
-  </si>
-  <si>
     <t>UNSURE</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>t2 (TO ADD)</t>
+  </si>
+  <si>
+    <t>t4</t>
   </si>
 </sst>
 </file>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,7 +1015,7 @@
         <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s">
         <v>52</v>
@@ -1035,7 +1035,7 @@
         <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s">
         <v>68</v>
@@ -1055,7 +1055,7 @@
         <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s">
         <v>68</v>
@@ -1075,7 +1075,7 @@
         <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s">
         <v>68</v>
@@ -1095,7 +1095,7 @@
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s">
         <v>68</v>
@@ -1595,7 +1595,7 @@
         <v>42</v>
       </c>
       <c r="E48" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s">
         <v>52</v>
@@ -1615,7 +1615,7 @@
         <v>18</v>
       </c>
       <c r="E49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I49" t="s">
         <v>52</v>
@@ -1635,7 +1635,7 @@
         <v>38</v>
       </c>
       <c r="E50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s">
         <v>52</v>
